--- a/Descriptive statistics.xlsx
+++ b/Descriptive statistics.xlsx
@@ -9,10 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives of Yields (Ortec)" sheetId="1" r:id="rId1"/>
+    <sheet name="Descriptives of US Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Descriptives of PC Ortec" sheetId="3" r:id="rId3"/>
+    <sheet name="Descriptives of PC Yield Curve" sheetId="4" r:id="rId4"/>
+    <sheet name="Corr PC Ortec - US Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Corr PC Ortec - Yields" sheetId="6" r:id="rId6"/>
+    <sheet name="Corr PC (data) - US Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Corr PC (data) - Yields" sheetId="8" r:id="rId8"/>
+    <sheet name="Corr US Data" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Mean</t>
   </si>
@@ -52,15 +60,90 @@
   <si>
     <t>$\hat{\rho}(10)$</t>
   </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>NAIRU</t>
+  </si>
+  <si>
+    <t>Equity return</t>
+  </si>
+  <si>
+    <t>Real GDP growth</t>
+  </si>
+  <si>
+    <t>Output gap</t>
+  </si>
+  <si>
+    <t>CPI inflation</t>
+  </si>
+  <si>
+    <t>PCE core inflation YoY</t>
+  </si>
+  <si>
+    <t>Long rate (10 year)</t>
+  </si>
+  <si>
+    <t>Modified Taylor Rule</t>
+  </si>
+  <si>
+    <t>Short rate (3 months)</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>PCE inflation</t>
+  </si>
+  <si>
+    <t>Taylor Rule</t>
+  </si>
+  <si>
+    <t>Short rate</t>
+  </si>
+  <si>
+    <t>Long Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +167,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,22 +192,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,4 +785,2722 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.0071759E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.1780119999999998E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.21512609999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-0.23076920000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.1988728000000001E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-4.0476045000000002E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-3.1401167000000001E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6.3371071000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.5083169999999996E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.7649900000000002E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.8311649999999999E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-2.1638109999999999E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.36999295300000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.34686099100000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.17227071199999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8.9552877000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1.5743940000000001E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.8329082E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.2394797000000001E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-6.5618438000000001E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.956746282</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.88805392699999997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.79721628099999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.177521014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.6395618999999999E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.3440937999999999E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.1600152999999998E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1.4267814E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.79662617199999997</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.61390770299999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.45919120000000002</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.15574825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.2421053E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.3987510000000003E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.956396048</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.90832353799999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.85459085499999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.65905950800000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.7887638999999999E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.3990713E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.9318443000000002E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-4.1856854999999998E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95534572299999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.88758909399999997</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.79953349399999996</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.28539004099999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.3396241E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.5883487E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.96731131100000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.93097553499999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.88450085000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.53180715999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.2307518999999997E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.3411986999999999E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1186</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.94070223799999997</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.89381545500000004</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.84893028599999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.72570449000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.0030075000000002E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.4762226E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.97006135599999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.91766764199999995</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.84757726200000005</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.17915173000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.3193984999999999E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.934786E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.97052856099999996</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.93215687199999997</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.88558953900000004</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.42366341699999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.42313327436842102</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.67251746393613898</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.3090148260000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1.222032818</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.95105668729036696</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.91699809382525599</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.88301553434763302</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.68382881686430597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.0903245714285697E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1134395839261999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.1300211789999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-4.715982951</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.243547038511057</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.120490823704063</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.110487528703023</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6.10342653328146E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.25737735926315802</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.86904480311022403</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.298082527</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-2.1133986999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.87280544376324198</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.84739773152075903</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.84176356220414394</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.68190841407135905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.1285684609022603E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99002794095012503</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7586513829999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.889187202</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.51529038298598295</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.329527426590558</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.18109092647739899</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-2.1828929278404401E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.5256914924811999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0498443018617301</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.286727795</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2.371784619</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.79604575662113197</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.75078441133394103</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.65893817910528896</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.24570588893051901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2.76488679323308E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.87762209631587196</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.629754038</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1.851526155</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.890863996700059</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.83657946612839396</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.81115079137781698</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.49510613971076001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.06120292030075E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.86586287584795596</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3748610559999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-2.2614180460000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.22593919587806199</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.336327869564711</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.15459904774896499</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.8465748307760397E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-5.1611572812030097E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99352136320610895</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.867883768</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-2.5917445450000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.425079511268183</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.33784613822192899</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.29730636032556901</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.05544299479366E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.2529285120300699E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89530337812104099</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.3279027440000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-2.0476632430000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.29427778176356001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.48268697057913101</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.19044870395522301</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.5561608448277502E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-8.6950870556391002E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.00102480659499</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.1453087489999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-2.4230128290000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.138909406633236</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.381568973338689</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.12199218559709E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.163179646447427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.97800662323331E-18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.3389506123992795E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.104926784630215</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.17179951800239601</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.95664960856579595</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.92022053921312996</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.87978603044097003</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.64638597554011101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.2020818654603399E-18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.09815935849441E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.1527827230040101E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2.30399639027404E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.85801228973524701</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.67166914726525995</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.49500277494563399</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.12576262578560701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.0624464390569402E-19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6990535300807999E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.7306708452622103E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-8.5589833961708106E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.68630720232970799</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.43574385768509599</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.29325357404854502</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.4800440552749598E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.2985946499217E-18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.14842589169542E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5296295803927198E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-2.4145017031299001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.65053755794719204</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.58089710633486102</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.45086713467554301</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-6.97658591075805E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.52610578895357E-18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.7513578206820496E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.55438712727491E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2.2886680587601402E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.46109471472008501</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.33675249853185801</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.32785308832946097</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-8.5561738537853205E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.5095868800628402E-18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.1338744121547901E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.7193822779044E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-8.5542090152514302E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.25852545711451302</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.205991014150778</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.1576031857547295E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.14819133443636801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-1.3666498961791801E-18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.9061877652091898E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.59392801774773E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1.1698328255432501E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.58162715295912304</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.40188936173978801</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.37183656350754202</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-2.0064531079759099E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1.7325427604477801E-18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0811564429441601E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.2434537690720401E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-7.0092532986634098E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.159117473378448</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.13676144182552599</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8.0183633252795899E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.11598342833375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="A1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-2.9515195000000001E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-5.5241891000000001E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-4.3207519999999998E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-0.61901441599999996</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.90327354900000001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-0.53410919800000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-0.75735074800000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-0.87492088300000004</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-0.15371870300000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-0.790522799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.82605002999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.48652941500000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.17020474299999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.4417879999999996E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.107489129</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.193203599</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.226600312</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.22084921199999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-6.8009316E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9.2038854000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.152519972</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.20920343199999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.25338714600000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-0.428032933</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-0.58717127700000005</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-0.53864047000000004</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-0.747404077</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-0.82367341500000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.106097331</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-0.58229779599999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-0.26496276600000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.374064114</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.51588069400000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.35115272199999997</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.6021750999999994E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.44468728899999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.27182214900000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.151313002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.52313593700000005</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-0.21632574299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.3811432000000002E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.0630918000000002E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.20166377199999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.15493032500000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.22953172399999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.28895678000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.29242851199999997</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.26113255800000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.123651546</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.24693522800000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-2.0554039999999999E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.9072220000000001E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.30923437999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.19684655600000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.7148356999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-0.22618013100000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.31545850199999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-0.270318689</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.36485487500000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>9.0701568999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-9.1181788999999999E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-3.7922600000000001E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-7.6874438000000003E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8.6595142E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.17370185099999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-0.16080841800000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-0.120467846</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-9.8669428000000003E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.4417802E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-0.106930147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-2.5055833999999999E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.1148033000000002E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.40522624200000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.3540519999999999E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-0.16474970899999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.212780785</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.10114239999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.9888824000000001E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-0.34624242199999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-0.15032870800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.9994167999999995E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-9.9126453000000003E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.36545884200000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.21818028</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.19599270899999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.394388244</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.30973829000000003</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.132729035</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-0.33746342600000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-6.6450814999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-2.7461917999999998E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.224480028</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.132210985</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.20992620200000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.266566358</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-5.5637376000000002E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.111067756</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-0.109227081</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-0.17796514899999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.17585746799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.751661311</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-0.75474443599999996</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.76551467399999995</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-0.78999291900000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.80679984599999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-0.83584202699999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-0.85155866199999997</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-0.87217950499999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.236744816</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.23567589</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.24080114899999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.248805268</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.25018411400000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.24641771400000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.240857607</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.23345120699999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.73837434599999996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.74006897299999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.75270957999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-0.77790960799999997</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-0.79223333900000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-0.81195765799999997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-0.81861649999999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-0.82023434500000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.27563232399999998</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.27499075000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.26869058899999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.246215558</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.23038069999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.19916082600000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.176077189</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.15445342200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.29854399300000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.29952316899999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.30023573799999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.28579437099999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.27939937500000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.26436318599999997</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.26517710500000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.26044050600000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.30979019499999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.30509213800000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.29946581999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.30528503899999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.30626234400000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-0.30680608700000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.29467163099999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-0.27121574199999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.11746319600000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-0.112142509</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.10996278900000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.108073665</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.105451374</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-9.9572644000000002E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-9.2455017E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-9.1016655000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.106664338</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.10513360200000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.102131162</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.0566638999999995E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.2059928E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.4184569E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-6.3641700000000002E-4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.5156529E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.31485315200000003</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.31259859299999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.28987787100000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.24644222700000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.21975684600000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.177542752</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.149391684</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.12889216000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.107122015</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-9.8794944999999995E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-8.9782107E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-8.7073084999999995E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-8.7619024000000004E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-9.2664897999999996E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-9.4309873000000002E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-0.104782045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-9.5637729000000005E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-0.285566192</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.46710371299999998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-0.62549959200000005</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.77207772600000002</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-0.81058165999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-0.98154571800000001</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-0.96760615999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.29186784999999998</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-0.57742422199999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.1875834E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.7011728999999997E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.57432596499999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-4.3989450999999999E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.16231326600000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-0.34340599700000002</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-0.17528263499999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.23767727399999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.58365068499999995</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.35626061799999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.2114698000000001E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.19666916400000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.298335923</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.18468193999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.21479603899999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-0.10170609799999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.2652120000000006E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6.0037012000000001E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.34803682899999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.333654389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-6.8333858999999997E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.5093709E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.12329314199999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.239322795</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.141731522</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1.0908434999999999E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-2.3870806000000001E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.5339959E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.23051649699999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.25739622299999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.4399777000000001E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.103675353</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.107144473</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.110910706</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.7627655999999997E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-5.3870807999999999E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.013288E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.0867676E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.18857307200000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.330983886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1.0986608E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-8.3936099999999995E-4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-2.6203249000000001E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.3558587999999999E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.3874228999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1.1330799999999999E-4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.7254299999999997E-4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5.5524909999999997E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.13337496099999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.14710224899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-2.1418135000000001E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.2836451000000001E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.3039571000000001E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.16064600500000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.20492887900000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-4.9343402000000001E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-1.8697550000000001E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-9.1381940000000005E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-6.0210339000000002E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.3651103999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-5.4571527000000002E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.3985967E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-5.3076412000000003E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-8.1624514999999995E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.8831504999999998E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-2.9484449999999999E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-3.232773E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-5.7363450000000003E-3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.999078E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7.6773930000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.98150448400000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-0.98606149600000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.99249338499999995</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-0.99854882700000003</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.99848117000000003</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-0.99094622099999996</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-0.98148142999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-0.96857800000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-0.181715139</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.164474484</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.11805444900000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-2.6561901999999998E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.3346386999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.132178606</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.19014981</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.242381081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.6248073000000003E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.7742628E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-2.0469971999999999E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-4.5546573999999999E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-4.1834042000000002E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-1.0971978E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.7468676999999998E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.9554778000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.9898393E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.9676820000000003E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.2357297000000002E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.6830599999999999E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1.1157334E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1.5467888000000001E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-7.5686870000000002E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.3644834E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7.8915830000000006E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.2417619E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.5199999999999997E-5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.0502390000000007E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.4231470000000001E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.0424507E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-4.3387679999999998E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7.690718E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-2.4685810000000001E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.8304689999999996E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-9.8392979999999998E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.0820170000000003E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.216062E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-4.9861660000000002E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-2.41012E-4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.3215710000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-5.1740200000000003E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-6.7416799999999995E-4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.080897E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9.0436800000000001E-4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1.661636E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.3618490000000002E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.2486633E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-5.3269800000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-3.5347299999999998E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.6411799999999998E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.0199999999999997E-5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-4.179126E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.730728E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-2.6522450000000001E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1.18266E-4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.3409999999999996E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24978639599999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1.2843762E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-6.4812689000000007E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.1840803000000001E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8.8984979999999995E-3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.9019922000000001E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9.0774834999999998E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9.0305961000000004E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.120319578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.24978639599999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.40015454700000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.3368292000000006E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.6324947000000004E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.35057333699999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.253249952</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.27814285799999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-0.180363617</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.124597532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1.2843762E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.40015454700000003</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.27622658999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.9026656000000001E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.81044735499999998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.54230706900000003</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.29159613299999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-0.89808832400000005</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-0.257450128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-6.4812689000000007E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.3368292000000006E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.27622658999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.69067044899999996</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.61691119500000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.62723022299999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.60128735499999997</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.20144838800000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.38434568800000002</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.1840803000000001E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.6324947000000004E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.9026656000000001E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.69067044899999996</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.64802629599999995</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.741396897</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.80728820599999995</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.4268217E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.62748192599999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.8984979999999995E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.35057333699999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.81044735499999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.61691119500000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.64802629599999995</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.85000801199999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.69718398800000003</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-0.67776141000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.17204554399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.9019922000000001E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.253249952</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.54230706900000003</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.62723022299999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.741396897</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.85000801199999998</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.91221128600000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-0.37167186000000002</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.52051318300000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.0774834999999998E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.27814285799999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.29159613299999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.60128735499999997</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.80728820599999995</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.69718398800000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.91221128600000001</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-0.113325852</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.67276488700000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.0305961000000004E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-0.180363617</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-0.89808832400000005</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.20144838800000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.4268217E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-0.67776141000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-0.37167186000000002</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.113325852</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.52923227500000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.120319578</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.124597532</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.257450128</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.38434568800000002</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.62748192599999997</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.17204554399999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.52051318300000005</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.67276488700000003</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.52923227500000003</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Descriptive statistics.xlsx
+++ b/Descriptive statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives of Yields (Ortec)" sheetId="1" r:id="rId1"/>
@@ -192,8 +192,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -231,6 +235,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -240,6 +246,8 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2829,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3103,7 +3111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3502,5 +3512,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>